--- a/Companies_Table.xlsx
+++ b/Companies_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -36,27 +36,18 @@
     <t>20th Century Fox</t>
   </si>
   <si>
-    <t>Century City, LA</t>
-  </si>
-  <si>
     <t>William Fox</t>
   </si>
   <si>
     <t>Walt Disney Pictures</t>
   </si>
   <si>
-    <t>Burbank, CA</t>
-  </si>
-  <si>
     <t>Walt Disney</t>
   </si>
   <si>
     <t>Sony Pictures Releasing</t>
   </si>
   <si>
-    <t>Culver City, CA</t>
-  </si>
-  <si>
     <t>Akio Morita</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Summit Entertainment</t>
   </si>
   <si>
-    <t>Santa Monica, CA</t>
-  </si>
-  <si>
     <t>Bernd Eichinger</t>
   </si>
   <si>
@@ -105,37 +93,166 @@
     <t>Carl Laemmle</t>
   </si>
   <si>
-    <t>Universal City, CA</t>
-  </si>
-  <si>
     <t>Paramount Pictures</t>
   </si>
   <si>
     <t>Adolph Zukor</t>
   </si>
   <si>
-    <t>Hollywood, CA</t>
-  </si>
-  <si>
     <t>Di Bonaventura Pictures</t>
   </si>
   <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
     <t>Lorenzo Di Bonaventura</t>
   </si>
   <si>
-    <t>Central Partnership</t>
-  </si>
-  <si>
-    <t>Russian Government</t>
-  </si>
-  <si>
     <t>Skydance Media</t>
   </si>
   <si>
     <t>David Ellison</t>
+  </si>
+  <si>
+    <t>De Line Pictures</t>
+  </si>
+  <si>
+    <t>Donald DeLine</t>
+  </si>
+  <si>
+    <t>Village Roadshow Pictures</t>
+  </si>
+  <si>
+    <t>Roc Kirby</t>
+  </si>
+  <si>
+    <t>Legendary Pictures</t>
+  </si>
+  <si>
+    <t>Thomas Tull</t>
+  </si>
+  <si>
+    <t>George Lucas</t>
+  </si>
+  <si>
+    <t>Lucasfilm</t>
+  </si>
+  <si>
+    <t>Pixar Animation Studios</t>
+  </si>
+  <si>
+    <t>Edwin Catmull</t>
+  </si>
+  <si>
+    <t>Ingenious Media</t>
+  </si>
+  <si>
+    <t>Patrick McKenna</t>
+  </si>
+  <si>
+    <t>Mid Atlantic Films</t>
+  </si>
+  <si>
+    <t>Adam Goodman</t>
+  </si>
+  <si>
+    <t>Century City; LA</t>
+  </si>
+  <si>
+    <t>Burbank; CA</t>
+  </si>
+  <si>
+    <t>Culver City; CA</t>
+  </si>
+  <si>
+    <t>Beverly Hills; CA</t>
+  </si>
+  <si>
+    <t>Emeryville; CA</t>
+  </si>
+  <si>
+    <t>Santa Monica; CA</t>
+  </si>
+  <si>
+    <t>Universal City; CA</t>
+  </si>
+  <si>
+    <t>Hollywood; CA</t>
+  </si>
+  <si>
+    <t>Los Angeles; CA</t>
+  </si>
+  <si>
+    <t>DreamWorks Animation</t>
+  </si>
+  <si>
+    <t>Golden Mean</t>
+  </si>
+  <si>
+    <t>Cine Bazar</t>
+  </si>
+  <si>
+    <t>Lionsgate</t>
+  </si>
+  <si>
+    <t>Virtual Studios</t>
+  </si>
+  <si>
+    <t>Dune Entertainment</t>
+  </si>
+  <si>
+    <t>Jerry Bruckheimer Films</t>
+  </si>
+  <si>
+    <t>NPV Entertainment</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>Glendale; CA</t>
+  </si>
+  <si>
+    <t>San Francisco; CA</t>
+  </si>
+  <si>
+    <t>London; UK</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Patalex IV Productions Limited</t>
+  </si>
+  <si>
+    <t>Cheltenham; UK</t>
+  </si>
+  <si>
+    <t>Simon Charles Lower</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Hideaki Anno</t>
+  </si>
+  <si>
+    <t>Vancouver; Canada</t>
+  </si>
+  <si>
+    <t>Frank Giustra</t>
+  </si>
+  <si>
+    <t>Benjamin Waisbren</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Brett Ratner</t>
+  </si>
+  <si>
+    <t>Jerry Bruckheimer</t>
+  </si>
+  <si>
+    <t>Joel Silver</t>
   </si>
 </sst>
 </file>
@@ -493,15 +610,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.1328125" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
     <col min="3" max="3" width="25.53125" customWidth="1"/>
     <col min="4" max="4" width="24.73046875" customWidth="1"/>
   </cols>
@@ -522,391 +639,391 @@
     </row>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>19995</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>206647</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>49026</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>49529</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>38757</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>99861</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>767</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>209112</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1452</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>10764</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>57201</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>49521</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2454</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>24428</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1865</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>41154</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>122917</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1930</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>20662</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>57158</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2268</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>597</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>271110</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>44833</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -914,296 +1031,30 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>135397</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>37724</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>558</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>68721</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>12155</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>36668</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>62211</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>8373</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>91314</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>68728</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>102382</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>20526</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>49013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>44912</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>10193</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>534</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>168259</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>72190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>127585</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>54138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>81005</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
